--- a/StructureDefinition-ext-R5-TestScript.scope.xlsx
+++ b/StructureDefinition-ext-R5-TestScript.scope.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `TestScript.scope` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `TestScript.scope` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Element `TestScript.scope` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:TestScript</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,8 @@
   </si>
   <si>
     <t>Element `TestScript.scope.artifact` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Element `TestScript.scope.artifact` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TestScript.scope.artifact` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `TestScript.scope.artifact` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:artifact.id</t>
@@ -422,7 +423,7 @@
   </si>
   <si>
     <t>Element `TestScript.scope.conformance` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Element `TestScript.scope.conformance` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Element `TestScript.scope.conformance` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:conformance.id</t>
@@ -454,7 +455,7 @@
   </si>
   <si>
     <t>Element `TestScript.scope.phase` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Element `TestScript.scope.phase` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Element `TestScript.scope.phase` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:phase.id</t>
@@ -816,7 +817,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="121.0703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="190.8046875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-TestScript.scope.xlsx
+++ b/StructureDefinition-ext-R5-TestScript.scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `TestScript.scope` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `TestScript.scope` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
+Element `TestScript.scope` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,7 @@
   <si>
     <t>Element `TestScript.scope.artifact` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TestScript.scope.artifact` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `TestScript.scope.artifact` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
+Element `TestScript.scope.artifact` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:artifact.id</t>
@@ -387,6 +387,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope.artifact</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,7 +426,7 @@
   </si>
   <si>
     <t>Element `TestScript.scope.conformance` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Element `TestScript.scope.conformance` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
+Element `TestScript.scope.conformance` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:conformance.id</t>
@@ -433,6 +436,9 @@
   </si>
   <si>
     <t>Extension.extension:conformance.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope.conformance</t>
   </si>
   <si>
     <t>Extension.extension:conformance.value[x]</t>
@@ -455,7 +461,7 @@
   </si>
   <si>
     <t>Element `TestScript.scope.phase` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Element `TestScript.scope.phase` is will have a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
+Element `TestScript.scope.phase` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:phase.id</t>
@@ -465,6 +471,9 @@
   </si>
   <si>
     <t>Extension.extension:phase.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope.phase</t>
   </si>
   <si>
     <t>Extension.extension:phase.value[x]</t>
@@ -1623,7 +1632,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1665,7 +1674,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1680,15 +1689,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1711,7 +1720,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1768,7 +1777,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1780,21 +1789,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1819,14 +1828,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1895,7 +1904,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1998,7 +2007,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2103,7 +2112,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2146,7 +2155,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2188,7 +2197,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2203,15 +2212,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2234,13 +2243,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2291,7 +2300,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2303,21 +2312,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2342,14 +2351,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2418,7 +2427,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2521,7 +2530,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2626,7 +2635,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2669,7 +2678,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2711,7 +2720,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2726,15 +2735,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2757,13 +2766,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2814,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2826,18 +2835,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2919,7 +2928,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
@@ -2934,15 +2943,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2965,13 +2974,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3022,7 +3031,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3034,10 +3043,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-TestScript.scope.xlsx
+++ b/StructureDefinition-ext-R5-TestScript.scope.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -402,7 +402,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-TestScript.scope.xlsx
+++ b/StructureDefinition-ext-R5-TestScript.scope.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>The specific conformance artifact being tested. The canonical reference can be version-specific.</t>
   </si>
   <si>
-    <t>Element `TestScript.scope.artifact` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TestScript.scope.artifact` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TestScript.scope.artifact` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `TestScript.scope.artifact` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
@@ -387,9 +386,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope.artifact</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -402,7 +398,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -425,8 +421,7 @@
     <t>The expectation of whether the test must pass for the system to be considered conformant with the artifact: required - all tests are expected to pass, optional - all test are expected to pass but non-pass status may be allowed, strict - all tests are expected to pass and warnings are treated as a failure.</t>
   </si>
   <si>
-    <t>Element `TestScript.scope.conformance` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Element `TestScript.scope.conformance` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
+    <t>Element `TestScript.scope.conformance` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:conformance.id</t>
@@ -436,9 +431,6 @@
   </si>
   <si>
     <t>Extension.extension:conformance.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope.conformance</t>
   </si>
   <si>
     <t>Extension.extension:conformance.value[x]</t>
@@ -448,6 +440,15 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The expectation of whether the test must pass for the system to be considered conformant with the artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-testscript-scope-conformance-codes-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:phase</t>
   </si>
   <si>
@@ -460,8 +461,7 @@
     <t>The phase of testing for this artifact: unit - development / implementation phase, integration - internal system to system phase, production - live system to system phase (Note, this may involve pii/phi data).</t>
   </si>
   <si>
-    <t>Element `TestScript.scope.phase` is part of an existing definition because parent element `TestScript.scope` requires a cross-version extension.
-Element `TestScript.scope.phase` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
+    <t>Element `TestScript.scope.phase` has a context of TestScript based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:phase.id</t>
@@ -473,10 +473,13 @@
     <t>Extension.extension:phase.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestScript.scope.phase</t>
-  </si>
-  <si>
     <t>Extension.extension:phase.value[x]</t>
+  </si>
+  <si>
+    <t>The phase of testing for this artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-testscript-scope-phase-codes-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>base64Binary
@@ -836,8 +839,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.97265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1632,72 +1635,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1720,7 +1723,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1777,7 +1780,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1789,21 +1792,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1828,14 +1831,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1904,7 +1907,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2155,7 +2158,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2197,30 +2200,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2243,13 +2246,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2276,13 +2279,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2300,7 +2303,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2312,21 +2315,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2351,14 +2354,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2635,7 +2638,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2678,7 +2681,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2720,22 +2723,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -2743,7 +2746,7 @@
         <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2766,13 +2769,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2799,13 +2802,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2823,7 +2826,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2835,18 +2838,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2928,30 +2931,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2974,13 +2977,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3031,7 +3034,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3043,10 +3046,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
